--- a/PIDEV-SKYWAY-main/reclamationdetails.xlsx
+++ b/PIDEV-SKYWAY-main/reclamationdetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>id_rec</t>
   </si>
@@ -35,49 +35,28 @@
     <t>id</t>
   </si>
   <si>
+    <t>mauvais cours</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>Astuces calcul mental</t>
+  </si>
+  <si>
     <t xml:space="preserve">malcomprenhension </t>
   </si>
   <si>
     <t>j'ai pas bien compris le cours</t>
   </si>
   <si>
-    <t>2021-04-02</t>
-  </si>
-  <si>
-    <t>Astuces calcul mental</t>
-  </si>
-  <si>
-    <t>hamza</t>
-  </si>
-  <si>
-    <t>bhim</t>
-  </si>
-  <si>
-    <t>2021-03-28</t>
-  </si>
-  <si>
-    <t>gsge</t>
-  </si>
-  <si>
-    <t>test ajout interface</t>
-  </si>
-  <si>
-    <t>sldhisqhdfisqdf</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>javafx</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>dddee</t>
-  </si>
-  <si>
-    <t>2021-04-01</t>
+    <t>explication</t>
+  </si>
+  <si>
+    <t>nermine</t>
+  </si>
+  <si>
+    <t>non clair</t>
   </si>
 </sst>
 </file>
@@ -161,19 +140,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
@@ -182,86 +161,65 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4"/>
+        <v>8</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" t="n">
-        <v>7.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5"/>
       <c r="G5" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>

--- a/PIDEV-SKYWAY-main/reclamationdetails.xlsx
+++ b/PIDEV-SKYWAY-main/reclamationdetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>id_rec</t>
   </si>
@@ -35,28 +35,31 @@
     <t>id</t>
   </si>
   <si>
-    <t>mauvais cours</t>
-  </si>
-  <si>
-    <t>2021-04-02</t>
-  </si>
-  <si>
-    <t>Astuces calcul mental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malcomprenhension </t>
-  </si>
-  <si>
-    <t>j'ai pas bien compris le cours</t>
-  </si>
-  <si>
-    <t>explication</t>
-  </si>
-  <si>
-    <t>nermine</t>
-  </si>
-  <si>
-    <t>non clair</t>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>eeeeeeee</t>
+  </si>
+  <si>
+    <t>2010-11-11</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>zefzefzef</t>
+  </si>
+  <si>
+    <t>zefzfzef</t>
+  </si>
+  <si>
+    <t>zezefez</t>
+  </si>
+  <si>
+    <t>zefzefze</t>
   </si>
 </sst>
 </file>
@@ -140,86 +143,71 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3"/>
       <c r="G3" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4"/>
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
-        <v>11.0</v>
+        <v>156.0</v>
       </c>
     </row>
   </sheetData>
